--- a/ky/downloads/data-excel/16.5.1.1b.xlsx
+++ b/ky/downloads/data-excel/16.5.1.1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>16.5.1.1b Кызматтык кылмыштар үчүн, анын ичинде коррупция жана пара алуучулуктан соттолгондордун саны</t>
   </si>
@@ -52,29 +52,38 @@
     <t>corruption and bribery</t>
   </si>
   <si>
-    <t>Эркектердин</t>
-  </si>
-  <si>
-    <t>Мужчин</t>
-  </si>
-  <si>
     <t>Men</t>
   </si>
   <si>
-    <t>Аялдардын</t>
-  </si>
-  <si>
-    <t>Женщин</t>
-  </si>
-  <si>
     <t>Women</t>
+  </si>
+  <si>
+    <t>Мужчины</t>
+  </si>
+  <si>
+    <t>Женщины</t>
+  </si>
+  <si>
+    <t>Эркектер</t>
+  </si>
+  <si>
+    <t>Аялдар</t>
+  </si>
+  <si>
+    <t>(человек)</t>
+  </si>
+  <si>
+    <t>(адам)</t>
+  </si>
+  <si>
+    <t>(person)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +121,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -175,6 +191,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -479,18 +499,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,287 +526,330 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="7">
         <v>2014</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E4" s="7">
         <v>2015</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F4" s="7">
         <v>2016</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G4" s="7">
         <v>2017</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H4" s="7">
         <v>2018</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I4" s="7">
         <v>2019</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J4" s="8">
         <v>2020</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K4" s="8">
         <v>2021</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L4" s="8">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="M4" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>378</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>336</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>351</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>234</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H5" s="3">
         <v>342</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <v>242</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J5" s="10">
         <v>200</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K5" s="10">
         <v>295</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L5" s="10">
         <v>370</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="M5" s="10">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>62</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>69</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>72</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>52</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <v>56</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="3">
         <v>79</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J6" s="10">
         <v>73</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K6" s="10">
         <v>163</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L6" s="10">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="M6" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D7" s="11">
+        <v>323</v>
+      </c>
+      <c r="E7" s="3">
+        <v>278</v>
+      </c>
+      <c r="F7" s="3">
+        <v>286</v>
+      </c>
+      <c r="G7" s="3">
+        <v>196</v>
+      </c>
+      <c r="H7" s="3">
+        <v>297</v>
+      </c>
+      <c r="I7" s="3">
+        <v>210</v>
+      </c>
+      <c r="J7" s="10">
+        <v>174</v>
+      </c>
+      <c r="K7" s="10">
+        <v>268</v>
+      </c>
+      <c r="L7" s="10">
+        <v>314</v>
+      </c>
+      <c r="M7" s="10">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3">
+        <v>65</v>
+      </c>
+      <c r="F8" s="3">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3">
+        <v>68</v>
+      </c>
+      <c r="J8" s="10">
+        <v>67</v>
+      </c>
+      <c r="K8" s="10">
+        <v>155</v>
+      </c>
+      <c r="L8" s="10">
+        <v>121</v>
+      </c>
+      <c r="M8" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11">
-        <v>323</v>
-      </c>
-      <c r="E6" s="3">
-        <v>278</v>
-      </c>
-      <c r="F6" s="3">
-        <v>286</v>
-      </c>
-      <c r="G6" s="3">
-        <v>196</v>
-      </c>
-      <c r="H6" s="3">
-        <v>297</v>
-      </c>
-      <c r="I6" s="3">
-        <v>210</v>
-      </c>
-      <c r="J6" s="10">
-        <v>174</v>
-      </c>
-      <c r="K6" s="10">
-        <v>268</v>
-      </c>
-      <c r="L6" s="10">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D9" s="3">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45</v>
+      </c>
+      <c r="I9" s="3">
+        <v>32</v>
+      </c>
+      <c r="J9" s="10">
+        <v>26</v>
+      </c>
+      <c r="K9" s="10">
+        <v>27</v>
+      </c>
+      <c r="L9" s="13">
+        <v>50</v>
+      </c>
+      <c r="M9" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
-        <v>57</v>
-      </c>
-      <c r="E7" s="3">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3">
-        <v>61</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3">
-        <v>53</v>
-      </c>
-      <c r="I7" s="3">
-        <v>68</v>
-      </c>
-      <c r="J7" s="10">
-        <v>67</v>
-      </c>
-      <c r="K7" s="10">
-        <v>155</v>
-      </c>
-      <c r="L7" s="10">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>11</v>
+      </c>
+      <c r="J10" s="12">
+        <v>6</v>
+      </c>
+      <c r="K10" s="12">
+        <v>8</v>
+      </c>
+      <c r="L10" s="12">
+        <v>16</v>
+      </c>
+      <c r="M10" s="12">
         <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>55</v>
-      </c>
-      <c r="E8" s="3">
-        <v>58</v>
-      </c>
-      <c r="F8" s="3">
-        <v>65</v>
-      </c>
-      <c r="G8" s="3">
-        <v>38</v>
-      </c>
-      <c r="H8" s="3">
-        <v>45</v>
-      </c>
-      <c r="I8" s="3">
-        <v>32</v>
-      </c>
-      <c r="J8" s="10">
-        <v>26</v>
-      </c>
-      <c r="K8" s="10">
-        <v>27</v>
-      </c>
-      <c r="L8" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5">
-        <v>8</v>
-      </c>
-      <c r="H9" s="5">
-        <v>3</v>
-      </c>
-      <c r="I9" s="5">
-        <v>11</v>
-      </c>
-      <c r="J9" s="12">
-        <v>6</v>
-      </c>
-      <c r="K9" s="12">
-        <v>8</v>
-      </c>
-      <c r="L9" s="12">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>